--- a/GI_Model_Results.xlsx
+++ b/GI_Model_Results.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hcurtis_usgs_gov/Documents/Desktop/Green Infrastructure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcurtis\OneDrive - DOI\Desktop\Green Infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="792" documentId="8_{09C210C6-B962-466C-886A-1F406E4C0383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DF9AFE-99D8-4CA0-BC21-862BA75ACE79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F594AD-4998-4DAC-9274-56A41B2A3401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8170411F-BB71-4F88-8EF3-4D48C0C84478}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8170411F-BB71-4F88-8EF3-4D48C0C84478}"/>
   </bookViews>
   <sheets>
     <sheet name="PLSR" sheetId="1" r:id="rId1"/>
     <sheet name="GAM" sheetId="2" r:id="rId2"/>
+    <sheet name="Iterative_GAM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="349">
   <si>
     <t>Description of Model Run</t>
   </si>
@@ -628,13 +629,469 @@
   </si>
   <si>
     <t>Underdrain + s(X..Vegetation_grass) + s(X..Vegetation_bare) + s(X..Vegetation_other) + s(Underlying.soil_..sand) + s(Underlying.soil_..clay) + s(Underlying.soil_..urban.disturbed) + Evidence.of.poor.infiltration + s(X..of.surface.with.poor.infiltration) + Vegetation.condition + Inlet.feature_Curb.Cut  + Outlet.feature_Other + Outlet.feature_Pipe</t>
+  </si>
+  <si>
+    <t>df_underdrain_res_removed</t>
+  </si>
+  <si>
+    <t>GAM on dataframe with NA samples removed, underdrain = 1, mostly hand selected vars, all underlying soil vars, removing vars until all have p &lt; 0.2</t>
+  </si>
+  <si>
+    <t>% vegetation other, underlying soil % sand, % vegetation shrub, engineered soil % sand</t>
+  </si>
+  <si>
+    <t>5.65E-6, 7.61E-5, 0.00336, 0.00337</t>
+  </si>
+  <si>
+    <t>df_no_underdrain_res_removed</t>
+  </si>
+  <si>
+    <t>GAM on dataframe with engineered soil vars removed, underdrain = 1, mostly hand selected vars, all underlying soil vars, removing vars until all have p &lt; 0.2</t>
+  </si>
+  <si>
+    <t>Drainage Area Ratio, Underlying Soil % Organic Matter, Age, % Vegetation Prairie</t>
+  </si>
+  <si>
+    <t>6.22E-5, 0.000282, 0.000595, 0.000627</t>
+  </si>
+  <si>
+    <t>Underlying Soil % Organic Matter also still in model</t>
+  </si>
+  <si>
+    <t>df_underdrain_pred_removed</t>
+  </si>
+  <si>
+    <t>% vegetation other, drainage area ratio, % vegetation prairie</t>
+  </si>
+  <si>
+    <t>6.33E-7, 1.84E-5, 0.0068</t>
+  </si>
+  <si>
+    <t>Underlying Soil % Urban Disturbed still in model (p = 0.0138)</t>
+  </si>
+  <si>
+    <t>Smoothed: drainage area ratio, ponding depth, % vegetation other, underlying soil % urban undisturbed. Params: % institutional, % vegetation grass, % vegetation prairie, % surface with poor infiltration, vegetation condition</t>
+  </si>
+  <si>
+    <t>df_no_underdrain_pred_removed</t>
+  </si>
+  <si>
+    <t>% vegetation grass, % vegetation prairie, % vegetation shrub, % vegetation tree</t>
+  </si>
+  <si>
+    <t>0.00754, 0.01156, 0.02184, 0.03532</t>
+  </si>
+  <si>
+    <t>Underlying Soil % Urban Disturbed still in model (p = 0.167)</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, NA samples removed, underlying soil vars used, removing vars until all are significant</t>
+  </si>
+  <si>
+    <t>Drainage Area Ratio, % surface with poor infiltration, engineered soil % compost, % vegetation prairie</t>
+  </si>
+  <si>
+    <t>0.00481, 0.01040, 0.0135, 0.0176</t>
+  </si>
+  <si>
+    <t>VIF for % veg prairie slightly above 5</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, NA samples removed, underlying soil vars removed, nonresidential instead of residential used, removing vars until all are significant</t>
+  </si>
+  <si>
+    <t>% vegetation prairie, engineered soil % compost, drainage area ratio</t>
+  </si>
+  <si>
+    <t>0.013, 0.0134, 0.0358</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, NA samples removed, underlying soil vars included, nonresidential instead of residential used, rf to select top 10 vars, removing vars until all are significant</t>
+  </si>
+  <si>
+    <t>% vegetation other, underlying soil % sand, engineered soil % compost, drainage area ratio, % vegetation shrub</t>
+  </si>
+  <si>
+    <t>6.3E-5, 0.00285, 0.00444, 0.00551, 0.00697</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, NA samples removed, underlying soil vars included, nonresidential instead of residential used, % vegetation other removed, removing vars until all are significant (p &lt; 0.2)</t>
+  </si>
+  <si>
+    <t>% vegetation prairie, % vegetation grass, % vegetation shrub, underlying soil % sand</t>
+  </si>
+  <si>
+    <t>8.64E-6, 4.66E-5, 0.00636, 0.00811</t>
+  </si>
+  <si>
+    <t>I think all of the % vegetation variables are in the wrong direction?</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, NA samples removed, underlying soil vars included, nonresidential instead of residential used, % vegetation other % vegetation shrub and % vegetation tree combined, removing vars until all are significant (p &lt; 0.2)</t>
+  </si>
+  <si>
+    <t>Drainage Area Ratio, % Vegetation Prairie, % Vegetation Grass</t>
+  </si>
+  <si>
+    <t>0.000483, 0.000677, 0.001727</t>
+  </si>
+  <si>
+    <t>VIF for vegetation high if include % veg other, Vegetation % going in wrong direction</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, inf rates split into low, medium, high, hand selected vars, underlying soil vars included</t>
+  </si>
+  <si>
+    <t>0.353 (undadjusted)</t>
+  </si>
+  <si>
+    <t>% vegetation shrub, underlying soil % sand, engineered soil % sand</t>
+  </si>
+  <si>
+    <t>&lt;2E-16, 0.000682, 0.001624</t>
+  </si>
+  <si>
+    <t>gam, family=ocat, select=TRUE</t>
+  </si>
+  <si>
+    <t>0.518 (unadjusted)</t>
+  </si>
+  <si>
+    <t>1.77E-6, 0.00018, 0.000817</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, inf rates split into low, medium, high, hand selected vars, underlying soil vars included, vars removed until all have p-value &lt; 0.2</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, inf rates split into above/below 6 in/hr, hand selected vars, underlying soil vars included, vars removed to try to maximize R2</t>
+  </si>
+  <si>
+    <t>gam, family=binomial, select=TRUE</t>
+  </si>
+  <si>
+    <t>% surface with poor infiltration, underlying soil % urban/disturbed, % vegetation other, % vegetation prairie</t>
+  </si>
+  <si>
+    <t>0.0149, 0.0185, 0.0351, 0.0377</t>
+  </si>
+  <si>
+    <t>% vegetation shrub, underdrain</t>
+  </si>
+  <si>
+    <t>0.000841, 0.00453</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, inf rates split into high/low based on median, hand selected vars, underlying soil vars included, vars removed to try to maximize R2 and til all p values &lt; 0.2</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, inf rates split into high/low based on median, hand selected vars, underlying soil vars included, use random forest to get initial 10 vars, vars removed to try to maximize R2 and til almost all p values &lt; 0.2</t>
+  </si>
+  <si>
+    <t>underlying soil % silt, age, % vegetation shrub</t>
+  </si>
+  <si>
+    <t>0.00168, 0.00191, 0.00315</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, inf rates split into above/below 6 in/hr, hand selected vars, underlying soil vars included, use random forest to get initial 10 vars, vars removed to try to maximize R2 and til almost all p values &lt; 0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">underlying soil % silt  </t>
+  </si>
+  <si>
+    <t>GAM on dataframe with engineered soil vars removed, underdrain = 0, mostly hand selected vars, all underlying soil vars, removing vars until all have p &lt; 0.2</t>
+  </si>
+  <si>
+    <t>GAM on dataframe with NA samples removed, underdrain = 0, mostly hand selected vars, all underlying soil vars, removing vars until all have p &lt; 0.2</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, NA samples removed, only org matter and urban/disturbed underlying soil vars included, using top vars from RF model, removing vars til all p-values &lt; 0.2, checking for concurvity</t>
+  </si>
+  <si>
+    <t>6.7E-5</t>
+  </si>
+  <si>
+    <t>GAM on df with NA samples removed, hand selected vars, PCA of underlying soil vars, random forest for var selection, removing vars til all have p-value &lt; 0.2</t>
+  </si>
+  <si>
+    <t>% Deviance Explained</t>
+  </si>
+  <si>
+    <t>Smoothed Predictor Vars</t>
+  </si>
+  <si>
+    <t>Linear Vars</t>
+  </si>
+  <si>
+    <t>Order of Significant Vars</t>
+  </si>
+  <si>
+    <t>Age, % Vegetation Shrub, % Vegetation Other, Soil PC 1, Soil PC 2, Engineered Soil % Sand</t>
+  </si>
+  <si>
+    <t>Drainage Area Ratio, Engineered Soil % Compost</t>
+  </si>
+  <si>
+    <t>% Veg Other, Soil PC 2, Drainage Area Ratio, Engineered Soil % Compost, % Veg Shrub, Age, Soil PC 1, Engineered Soil % Sand</t>
+  </si>
+  <si>
+    <t>0.000184, 0.002604, 0.00386, 0.02321, 0.024388, 0.035335, 0.053611, 0.073261</t>
+  </si>
+  <si>
+    <t>Age, % Vegetation Shrub, % Vegetation Other, Soil PC 1, Soil PC 2, Engineered Soil % Sand, Engineered Soil % Compost</t>
+  </si>
+  <si>
+    <t>Drainage Area Ratio</t>
+  </si>
+  <si>
+    <t>% Veg Other, Soil PC 2, Drainage Area Ratio, Engineered Soil % Compost, Age, Engineered Soil % Sand, Soil PC 1, % Veg Shrub</t>
+  </si>
+  <si>
+    <t>0.000221, 0.000959, 0.00458, 0.021898, 0.027023, 0.038164, 0.0393, 0.051059</t>
+  </si>
+  <si>
+    <t>Concurvity issues with Soil PCs and Engineered Soil Vars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concurvity issues with Soil PCs  </t>
+  </si>
+  <si>
+    <t>Differences from Previous</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>% Compost smoothed, slight differences in var importance order</t>
+  </si>
+  <si>
+    <t>Slight differences in var importance order</t>
+  </si>
+  <si>
+    <t>0.000223, 0.001135, 0.004788, 0.02319, 0.025445, 0.041278, 0.048417, 0.054402</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Soil_PC_2, Drainage.Area.Ratio, Engineered.Soil.Percent.Compost, Age, Soil_PC_1, Percent.Vegetation.Shrub, Engineered.Soil.Percent.Sand</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Soil_PC_2, Drainage.Area.Ratio, Engineered.Soil.Percent.Compost, Soil_PC_1, Engineered.Soil.Percent.Sand, Percent.Vegetation.Shrub, Age</t>
+  </si>
+  <si>
+    <t>0.000181, 0.001058, 0.004664, 0.013449, 0.032528, 0.041896, 0.048408, 0.049297</t>
+  </si>
+  <si>
+    <t>0.000177, 0.00128, 0.00464, 0.013365, 0.034972, 0.045573, 0.047434, 0.051745</t>
+  </si>
+  <si>
+    <t>% Veg Tree replaces % Non-residential in random forest (not included in final model)</t>
+  </si>
+  <si>
+    <t>% Non-residential replaces % Veg Tree in random forest</t>
+  </si>
+  <si>
+    <t>0.000207, 0.001046, 0.005672, 0.018628, 0.031226, 0.035562, 0.043904, 0.048262</t>
+  </si>
+  <si>
+    <t>GCV</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Soil_PC_2, Drainage.Area.Ratio, Engineered.Soil.Percent.Compost, Percent.Vegetation.Shrub, Soil_PC_1, Engineered.Soil.Percent.Sand, Age</t>
+  </si>
+  <si>
+    <t>0.000135, 0.002145, 0.003331, 0.017344, 0.032045, 0.037293, 0.045173, 0.067841</t>
+  </si>
+  <si>
+    <t>% Compost linear, slight differences in var importance order</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Soil_PC_2, Drainage.Area.Ratio, Percent.Vegetation.Shrub, Engineered.Soil.Percent.Compost, Soil_PC_1, Age, Engineered.Soil.Percent.Sand</t>
+  </si>
+  <si>
+    <t>0.000176, 0.00182, 0.003243, 0.012048, 0.022218, 0.036608, 0.062923, 0.069165</t>
+  </si>
+  <si>
+    <t>0.000192, 0.001979, 0.003247, 0.016912, 0.024809, 0.037677, 0.061239, 0.073256</t>
+  </si>
+  <si>
+    <t>0.000181, 0.002181, 0.003067, 0.016554, 0.027824, 0.034973, 0.051531, 0.072642</t>
+  </si>
+  <si>
+    <t>0.000221, 0.002436, 0.003276, 0.016024, 0.029248, 0.036528, 0.054125, 0.075218</t>
+  </si>
+  <si>
+    <t>0.000213, 0.002696, 0.003312, 0.020014, 0.032023, 0.036821, 0.051198, 0.076241</t>
+  </si>
+  <si>
+    <t>0.000245, 0.002847, 0.003536, 0.022458, 0.033426, 0.037686, 0.061208, 0.075224</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Soil_PC_2, Drainage.Area.Ratio, Percent.Vegetation.Shrub, Engineered.Soil.Percent.Compost, Age, Soil_PC_1, Engineered.Soil.Percent.Sand</t>
+  </si>
+  <si>
+    <t>0.000247, 0.00339, 0.003964, 0.015414, 0.031923, 0.039721, 0.04054, 0.11331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couldn't smooth % Non-residential due to low DOF, concurvity issues with Soil PCs  </t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Drainage.Area.Ratio, Soil_PC_2, Percent.Vegetation.Shrub, Engineered.Soil.Percent.Compost, Age, Soil_PC_1, Engineered.Soil.Percent.Sand</t>
+  </si>
+  <si>
+    <t>0.000321, 0.004143, 0.005495, 0.017081, 0.029199, 0.041404, 0.044625, 0.123846</t>
+  </si>
+  <si>
+    <t>0.000331, 0.00377, 0.004893, 0.015048, 0.035419, 0.041105, 0.045171, 0.130804</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Drainage.Area.Ratio, Soil_PC_2, Percent.Vegetation.Shrub, Engineered.Soil.Percent.Compost, Soil_PC_1, Age, Engineered.Soil.Percent.Sand</t>
+  </si>
+  <si>
+    <t>0.000414, 0.004212, 0.005675, 0.014098, 0.026275, 0.052974, 0.058319, 0.15937</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Drainage.Area.Ratio, Percent.Vegetation.Shrub, Soil_PC_2, Engineered.Soil.Percent.Compost, Soil_PC_1, Age, Engineered.Soil.Percent.Sand</t>
+  </si>
+  <si>
+    <t>0.000423, 0.004568, 0.014243, 0.015763, 0.024658, 0.059519, 0.060284, 0.181698</t>
+  </si>
+  <si>
+    <t>Age, % Vegetation Shrub, % Vegetation Other, Soil PC 1, Soil PC 2</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Drainage.Area.Ratio, Percent.Vegetation.Shrub, Soil_PC_2, Age, Engineered.Soil.Percent.Compost, Soil_PC_1</t>
+  </si>
+  <si>
+    <t>0.001384, 0.007343, 0.019389, 0.023051, 0.034304, 0.049311, 0.083647</t>
+  </si>
+  <si>
+    <t>Deleted Engineered Soil % Sand because p value above 0.2 (reduced R2 slightly), slight differences in var importance order</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Drainage.Area.Ratio, Soil_PC_1, Age, Percent.Vegetation.Shrub, Soil_PC_2, Engineered.Soil.Percent.Compost</t>
+  </si>
+  <si>
+    <t>0.000762, 0.008671, 0.022523, 0.031118, 0.035368, 0.039165, 0.03949</t>
+  </si>
+  <si>
+    <t>0.001388, 0.007313, 0.018387, 0.018721, 0.042542, 0.052087, 0.066272</t>
+  </si>
+  <si>
+    <t>0.00043, 0.004933, 0.013944, 0.020029, 0.024162, 0.043197, 0.095067, 0.174126</t>
+  </si>
+  <si>
+    <t>Engineered Soil % Sand left in because p value below 0.2, slight differences in var importance order</t>
+  </si>
+  <si>
+    <t>5e-04, 0.005402, 0.015587, 0.022341, 0.026114, 0.046539, 0.095354, 0.187544</t>
+  </si>
+  <si>
+    <t>0.000552, 0.006025, 0.018852, 0.023848, 0.028023, 0.0492, 0.100859, 0.193087</t>
+  </si>
+  <si>
+    <t>0.000728, 0.006517, 0.020265, 0.022902, 0.031289, 0.047563, 0.09058, 0.199847</t>
+  </si>
+  <si>
+    <t>0.000765, 0.007474, 0.018429, 0.022182, 0.027279, 0.042015, 0.113229, 0.171841</t>
+  </si>
+  <si>
+    <t>Age, % Vegetation Other, Soil PC 1, Soil PC 2</t>
+  </si>
+  <si>
+    <t>Drainage Area Ratio, % Vegetation Prairie, Engineered Soil % Compost</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Drainage.Area.Ratio, Engineered.Soil.Percent.Compost, Age, Soil_PC_2, Soil_PC_1, Percent.Vegetation.Prairie</t>
+  </si>
+  <si>
+    <t>0.00227, 0.004992, 0.015645, 0.062521, 0.07112, 0.08705, 0.137245</t>
+  </si>
+  <si>
+    <t>% Veg Tree replaces % Non-residential in random forest (not included in final model), % Vegetation Shrub deleted due to high p value, Engineered Soil % Sand deleted due to high p value, % Vegetation Prairie stayed in final model</t>
+  </si>
+  <si>
+    <t>Age, % Vegetation Shrub, % Vegetation Prairie, % Vegetation Other, Soil PC 1, Soil PC 2</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Drainage.Area.Ratio, Soil_PC_2, Age, Engineered.Soil.Percent.Compost, Percent.Vegetation.Shrub, Soil_PC_1, Percent.Vegetation.Prairie</t>
+  </si>
+  <si>
+    <t>0.000493, 0.012253, 0.023375, 0.029677, 0.042607, 0.053625, 0.067879, 0.161705</t>
+  </si>
+  <si>
+    <t>% Vegetation Shrub still in final model</t>
+  </si>
+  <si>
+    <t>0.000507, 0.013975, 0.028989, 0.032617, 0.036503, 0.057177, 0.098648, 0.146868</t>
+  </si>
+  <si>
+    <t>Age, Engineered Soil % Compost</t>
+  </si>
+  <si>
+    <t>Drainage Area Ratio, % Vegetation Tree, % Vegetation Other</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Drainage.Area.Ratio, Engineered.Soil.Percent.Compost, Age, Percent.Vegetation.Tree</t>
+  </si>
+  <si>
+    <t>3.8e-05, 0.002025, 0.0031, 0.004784, 0.119863</t>
+  </si>
+  <si>
+    <t>% Vegetation Tree replaces % Non-residential in random forest (remained in final model), Soil PCs removed due to high p values, % Veg Shrub and Prairie removed due to high p values, Engineered Soil % Compost smoothed, % Veg Tree and Other linear</t>
+  </si>
+  <si>
+    <t>0.00373, 0.010417, 0.011458, 0.079697, 0.089561, 0.193141</t>
+  </si>
+  <si>
+    <t>% Non-residential replaces % Veg Tree in random forest, Soil PCs kept in model, % Veg Prairie kept in model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age, % Vegetation Prairie, % Vegetation Other, Soil PC 1, Soil PC 2, Engineered Soil % Compost </t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Age, Drainage.Area.Ratio, Engineered.Soil.Percent.Compost, Soil_PC_2, Soil_PC_1, Percent.Vegetation.Prairie</t>
+  </si>
+  <si>
+    <t>0.000422, 0.003853, 0.00582, 0.011871, 0.04713, 0.080562, 0.147514</t>
+  </si>
+  <si>
+    <t>% Vegetation Prairie and Engineered Soil % Compost smoothed, slight differences in var importance order</t>
+  </si>
+  <si>
+    <t>Age, % Vegetation Prairie, % Vegetation Other, Soil PC 1, Soil PC 2</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Drainage.Area.Ratio, Age, Engineered.Soil.Percent.Compost, Soil_PC_1, Soil_PC_2, Percent.Vegetation.Prairie</t>
+  </si>
+  <si>
+    <t>0.000536, 0.003299, 0.007479, 0.015092, 0.051257, 0.05767, 0.108321</t>
+  </si>
+  <si>
+    <t>Age, % Vegetation Other, Engineered Soil % Compost</t>
+  </si>
+  <si>
+    <t>Drainage Area Ratio, % Vegetation Tree, Soil PC 1</t>
+  </si>
+  <si>
+    <t>Percent.Vegetation.Other, Drainage.Area.Ratio, Age, Engineered.Soil.Percent.Compost, Soil_PC_1, Percent.Vegetation.Tree</t>
+  </si>
+  <si>
+    <t>0.000386, 0.002006, 0.006546, 0.00772, 0.178989, 0.189594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couldn't smooth % Non-residential due to low DOF, concurvity issues with Soil PCs </t>
+  </si>
+  <si>
+    <t>Engineered Soil % Compost linear, slight differences in var importance oder</t>
+  </si>
+  <si>
+    <t>Engineered Soil % Compost smooth, % Vegetation Prairie removed, Soil PC 1 linear and Soil PC 2 removed, % Vegetation Tree remained in model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,8 +1107,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,6 +1140,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -683,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -698,6 +1174,21 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,10 +1204,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1853,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D9C51-D9D2-4B5E-AD26-05849D19352C}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2991,7 +3478,7 @@
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>45545</v>
       </c>
@@ -3027,7 +3514,7 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>45545</v>
       </c>
@@ -3063,7 +3550,7 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>45545</v>
       </c>
@@ -3099,7 +3586,7 @@
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>45548</v>
       </c>
@@ -3134,7 +3621,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45548</v>
       </c>
@@ -3172,7 +3659,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45548</v>
       </c>
@@ -3210,7 +3697,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45552</v>
       </c>
@@ -3243,9 +3730,2433 @@
       </c>
       <c r="K39" s="10" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="10">
+        <v>78</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G40" s="10">
+        <v>52.767000000000003</v>
+      </c>
+      <c r="H40" s="10">
+        <v>7</v>
+      </c>
+      <c r="I40" s="10">
+        <v>5</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="M40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="10">
+        <v>24</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="G41" s="10">
+        <v>26.713999999999999</v>
+      </c>
+      <c r="H41" s="10">
+        <v>3</v>
+      </c>
+      <c r="I41" s="10">
+        <v>4</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="10">
+        <v>102</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G42" s="10">
+        <v>69.322000000000003</v>
+      </c>
+      <c r="H42" s="10">
+        <v>4</v>
+      </c>
+      <c r="I42" s="10">
+        <v>5</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L42" t="s">
+        <v>210</v>
+      </c>
+      <c r="M42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="10">
+        <v>80</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="10">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="G43" s="10">
+        <v>96.394000000000005</v>
+      </c>
+      <c r="H43" s="10">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10">
+        <v>4</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="M43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>45566</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="10">
+        <v>102</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.443</v>
+      </c>
+      <c r="G44" s="10">
+        <v>60.054000000000002</v>
+      </c>
+      <c r="H44" s="10">
+        <v>6</v>
+      </c>
+      <c r="I44" s="10">
+        <v>5</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="M44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>45566</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="10">
+        <v>102</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.374</v>
+      </c>
+      <c r="G45" s="10">
+        <v>66.543000000000006</v>
+      </c>
+      <c r="H45" s="10">
+        <v>4</v>
+      </c>
+      <c r="I45" s="10">
+        <v>5</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="M45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45566</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="10">
+        <v>102</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G46" s="10">
+        <v>62.4</v>
+      </c>
+      <c r="H46" s="10">
+        <v>7</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>45566</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="10">
+        <v>102</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="G47" s="10">
+        <v>63.271000000000001</v>
+      </c>
+      <c r="H47" s="10">
+        <v>6</v>
+      </c>
+      <c r="I47" s="10">
+        <v>6</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="M47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>45566</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="10">
+        <v>102</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G48" s="10">
+        <v>62.131</v>
+      </c>
+      <c r="H48" s="10">
+        <v>7</v>
+      </c>
+      <c r="I48" s="10">
+        <v>4</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="M48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>45566</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="10">
+        <v>102</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G49" s="10">
+        <v>106.82</v>
+      </c>
+      <c r="H49" s="10">
+        <v>5</v>
+      </c>
+      <c r="I49" s="10">
+        <v>3</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>45569</v>
+      </c>
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="10">
+        <v>102</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" s="10">
+        <v>107.08</v>
+      </c>
+      <c r="H50" s="10">
+        <v>7</v>
+      </c>
+      <c r="I50" s="10">
+        <v>7</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>45569</v>
+      </c>
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="10">
+        <v>102</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="G51" s="10">
+        <v>-0.12719</v>
+      </c>
+      <c r="H51" s="10">
+        <v>4</v>
+      </c>
+      <c r="I51" s="10">
+        <v>3</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>45569</v>
+      </c>
+      <c r="B52" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="10">
+        <v>102</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0.61</v>
+      </c>
+      <c r="G52" s="10">
+        <v>-3.7115000000000002E-2</v>
+      </c>
+      <c r="H52" s="10">
+        <v>3</v>
+      </c>
+      <c r="I52" s="10">
+        <v>6</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>45569</v>
+      </c>
+      <c r="B53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="10">
+        <v>102</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0.622</v>
+      </c>
+      <c r="G53" s="10">
+        <v>-4.6637999999999999E-2</v>
+      </c>
+      <c r="H53" s="10">
+        <v>5</v>
+      </c>
+      <c r="I53" s="10">
+        <v>3</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>45569</v>
+      </c>
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="10">
+        <v>102</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="10">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G54" s="10">
+        <v>-8.3376000000000006E-2</v>
+      </c>
+      <c r="H54" s="10">
+        <v>6</v>
+      </c>
+      <c r="I54" s="10">
+        <v>1</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="K54" s="10">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>45573</v>
+      </c>
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="10">
+        <v>102</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="G55" s="10">
+        <v>66.084000000000003</v>
+      </c>
+      <c r="H55" s="10">
+        <v>4</v>
+      </c>
+      <c r="I55" s="10">
+        <v>4</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9343BA1-979E-4A95-9F9F-CBB086A3E47A}">
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G2">
+        <v>51.1</v>
+      </c>
+      <c r="H2">
+        <v>62.433999999999997</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <f>D2-1</f>
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G3">
+        <v>51.5</v>
+      </c>
+      <c r="H3">
+        <v>62.491999999999997</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D32" si="0">D3-1</f>
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G4">
+        <v>51.2</v>
+      </c>
+      <c r="H4">
+        <v>63.029000000000003</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G5">
+        <v>51.4</v>
+      </c>
+      <c r="H5">
+        <v>63.482999999999997</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>63.957000000000001</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>267</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G7">
+        <v>51.4</v>
+      </c>
+      <c r="H7">
+        <v>64.188999999999993</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G8">
+        <v>51.3</v>
+      </c>
+      <c r="H8">
+        <v>64.284000000000006</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>263</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G9">
+        <v>51.5</v>
+      </c>
+      <c r="H9">
+        <v>63.707999999999998</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>262</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>263</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="G10">
+        <v>51.6</v>
+      </c>
+      <c r="H10">
+        <v>64.471999999999994</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G11">
+        <v>52.1</v>
+      </c>
+      <c r="H11">
+        <v>64.957999999999998</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>263</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G12">
+        <v>52.2</v>
+      </c>
+      <c r="H12">
+        <v>65.879000000000005</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>262</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>263</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G13">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>66.721000000000004</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>263</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G14">
+        <v>51.9</v>
+      </c>
+      <c r="H14">
+        <v>67.664000000000001</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>262</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>263</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G15">
+        <v>52.2</v>
+      </c>
+      <c r="H15">
+        <v>67.534999999999997</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>262</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>263</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G16">
+        <v>51.9</v>
+      </c>
+      <c r="H16">
+        <v>68.600999999999999</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>262</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>263</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G17">
+        <v>52.2</v>
+      </c>
+      <c r="H17">
+        <v>69.412000000000006</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>263</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="15"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="G18">
+        <v>52.7</v>
+      </c>
+      <c r="H18">
+        <v>69.494</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>262</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>263</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="G19">
+        <v>52.5</v>
+      </c>
+      <c r="H19">
+        <v>70.563000000000002</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>263</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G20">
+        <v>50.3</v>
+      </c>
+      <c r="H20">
+        <v>71.632000000000005</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>305</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>263</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="G21">
+        <v>50.1</v>
+      </c>
+      <c r="H21">
+        <v>73.811999999999998</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>305</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>263</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G22">
+        <v>50.9</v>
+      </c>
+      <c r="H22">
+        <v>73.084999999999994</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>305</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>263</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="G23">
+        <v>52.4</v>
+      </c>
+      <c r="H23">
+        <v>73.891000000000005</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>262</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>263</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>45583</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="G24" s="18">
+        <v>52.3</v>
+      </c>
+      <c r="H24" s="18">
+        <v>75.158000000000001</v>
+      </c>
+      <c r="I24" s="18">
+        <v>6</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="K24" s="18">
+        <v>2</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q24" s="15"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G25">
+        <v>52.1</v>
+      </c>
+      <c r="H25">
+        <v>76.498000000000005</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25" t="s">
+        <v>262</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>263</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G26">
+        <v>52.5</v>
+      </c>
+      <c r="H26">
+        <v>77.542000000000002</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26" t="s">
+        <v>262</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>263</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G27">
+        <v>52.5</v>
+      </c>
+      <c r="H27">
+        <v>78.543000000000006</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>262</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>45583</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G28" s="7">
+        <v>45.1</v>
+      </c>
+      <c r="H28" s="7">
+        <v>83.828000000000003</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K28" s="7">
+        <v>3</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>45583</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G29" s="7">
+        <v>57.9</v>
+      </c>
+      <c r="H29" s="7">
+        <v>79.63</v>
+      </c>
+      <c r="I29" s="7">
+        <v>6</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K29" s="7">
+        <v>2</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>45583</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G30" s="7">
+        <v>57.7</v>
+      </c>
+      <c r="H30" s="7">
+        <v>81.018000000000001</v>
+      </c>
+      <c r="I30" s="7">
+        <v>6</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>45583</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G31" s="7">
+        <v>48.8</v>
+      </c>
+      <c r="H31" s="7">
+        <v>74.028999999999996</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K31" s="7">
+        <v>3</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>45583</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.434</v>
+      </c>
+      <c r="G32" s="7">
+        <v>52.7</v>
+      </c>
+      <c r="H32" s="7">
+        <v>75.650000000000006</v>
+      </c>
+      <c r="I32" s="7">
+        <v>4</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K32" s="7">
+        <v>3</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>45583</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="7">
+        <v>71</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="G33" s="7">
+        <v>54.9</v>
+      </c>
+      <c r="H33" s="7">
+        <v>75.254999999999995</v>
+      </c>
+      <c r="I33" s="7">
+        <v>6</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="P33" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>45583</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="7">
+        <v>70</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G34" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="H34" s="7">
+        <v>75.619</v>
+      </c>
+      <c r="I34" s="7">
+        <v>5</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K34" s="7">
+        <v>2</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="P34" s="17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>45583</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="7">
+        <v>69</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="G35" s="7">
+        <v>50</v>
+      </c>
+      <c r="H35" s="7">
+        <v>79.8</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K35" s="7">
+        <v>3</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GI_Model_Results.xlsx
+++ b/GI_Model_Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcurtis\OneDrive - DOI\Desktop\Green Infrastructure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hcurtis_usgs_gov/Documents/Desktop/Green Infrastructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F594AD-4998-4DAC-9274-56A41B2A3401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -2342,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D9C51-D9D2-4B5E-AD26-05849D19352C}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4325,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9343BA1-979E-4A95-9F9F-CBB086A3E47A}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/GI_Model_Results.xlsx
+++ b/GI_Model_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hcurtis_usgs_gov/Documents/Desktop/Green Infrastructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F594AD-4998-4DAC-9274-56A41B2A3401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{D2F594AD-4998-4DAC-9274-56A41B2A3401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F2F9C9-75CF-44BC-80B1-531022C27D8F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8170411F-BB71-4F88-8EF3-4D48C0C84478}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8170411F-BB71-4F88-8EF3-4D48C0C84478}"/>
   </bookViews>
   <sheets>
     <sheet name="PLSR" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="353">
   <si>
     <t>Description of Model Run</t>
   </si>
@@ -1085,6 +1085,18 @@
   </si>
   <si>
     <t>Engineered Soil % Compost smooth, % Vegetation Prairie removed, Soil PC 1 linear and Soil PC 2 removed, % Vegetation Tree remained in model</t>
+  </si>
+  <si>
+    <t>GAM on V3 data, subset of dataframe with confident infiltration rates</t>
+  </si>
+  <si>
+    <t>% vegetation shrub, underdrain, soil PC 2, % vegetation other</t>
+  </si>
+  <si>
+    <t>0.00204, 0.00258, 0.04511, 0.07302</t>
+  </si>
+  <si>
+    <t>Algorithm not running on data for some reason</t>
   </si>
 </sst>
 </file>
@@ -2340,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D9C51-D9D2-4B5E-AD26-05849D19352C}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4071,7 +4083,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45566</v>
       </c>
@@ -4106,7 +4118,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45569</v>
       </c>
@@ -4141,7 +4153,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45569</v>
       </c>
@@ -4176,7 +4188,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45569</v>
       </c>
@@ -4211,7 +4223,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45569</v>
       </c>
@@ -4246,7 +4258,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45569</v>
       </c>
@@ -4281,7 +4293,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45573</v>
       </c>
@@ -4314,6 +4326,44 @@
       </c>
       <c r="K55" s="14" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>45601</v>
+      </c>
+      <c r="B56" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="10">
+        <v>51</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="G56" s="10">
+        <v>40.344000000000001</v>
+      </c>
+      <c r="H56" s="10">
+        <v>2</v>
+      </c>
+      <c r="I56" s="10">
+        <v>2</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="L56" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4325,8 +4375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9343BA1-979E-4A95-9F9F-CBB086A3E47A}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
